--- a/Items.xlsx
+++ b/Items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\NetBeansProjects\MinecraftServerWrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
   <si>
     <t>#</t>
   </si>
@@ -1331,7 +1331,205 @@
     <t>3,8</t>
   </si>
   <si>
-    <t>6,0</t>
+    <t>6, 1</t>
+  </si>
+  <si>
+    <t>6,1</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>2,11</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>6,4</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>9,3</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>4,9</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>10,1</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>10,3</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>5,4</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>9,6</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>11,3</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>11,5</t>
+  </si>
+  <si>
+    <t>12,5</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>13,3</t>
   </si>
 </sst>
 </file>
@@ -1651,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,7 +4509,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
@@ -4321,6 +4519,9 @@
       <c r="C281" t="s">
         <v>282</v>
       </c>
+      <c r="E281" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282">
@@ -4329,6 +4530,9 @@
       <c r="C282" t="s">
         <v>283</v>
       </c>
+      <c r="E282" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283">
@@ -4337,6 +4541,9 @@
       <c r="C283" t="s">
         <v>284</v>
       </c>
+      <c r="E283" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284">
@@ -4345,6 +4552,9 @@
       <c r="C284" t="s">
         <v>285</v>
       </c>
+      <c r="E284" t="s">
+        <v>439</v>
+      </c>
       <c r="F284">
         <v>0</v>
       </c>
@@ -4356,6 +4566,9 @@
       <c r="C285" t="s">
         <v>286</v>
       </c>
+      <c r="E285" t="s">
+        <v>440</v>
+      </c>
       <c r="F285">
         <v>1</v>
       </c>
@@ -4367,6 +4580,9 @@
       <c r="C286" t="s">
         <v>287</v>
       </c>
+      <c r="E286" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287">
@@ -4375,6 +4591,9 @@
       <c r="C287" t="s">
         <v>288</v>
       </c>
+      <c r="E287" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288">
@@ -4383,256 +4602,352 @@
       <c r="C288" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E288" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B289">
         <v>267</v>
       </c>
       <c r="C289" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E289" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B290">
         <v>268</v>
       </c>
       <c r="C290" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E290" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B291">
         <v>269</v>
       </c>
       <c r="C291" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E291" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B292">
         <v>270</v>
       </c>
       <c r="C292" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E292" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B293">
         <v>271</v>
       </c>
       <c r="C293" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E293" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B294">
         <v>272</v>
       </c>
       <c r="C294" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E294" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B295">
         <v>273</v>
       </c>
       <c r="C295" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E295" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B296">
         <v>274</v>
       </c>
       <c r="C296" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E296" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B297">
         <v>275</v>
       </c>
       <c r="C297" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E297" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B298">
         <v>276</v>
       </c>
       <c r="C298" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E298" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B299">
         <v>277</v>
       </c>
       <c r="C299" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E299" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B300">
         <v>278</v>
       </c>
       <c r="C300" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E300" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B301">
         <v>279</v>
       </c>
       <c r="C301" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E301" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B302">
         <v>280</v>
       </c>
       <c r="C302" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E302" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B303">
         <v>281</v>
       </c>
       <c r="C303" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E303" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B304">
         <v>282</v>
       </c>
       <c r="C304" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E304" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B305">
         <v>283</v>
       </c>
       <c r="C305" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E305" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B306">
         <v>284</v>
       </c>
       <c r="C306" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E306" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B307">
         <v>285</v>
       </c>
       <c r="C307" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E307" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B308">
         <v>286</v>
       </c>
       <c r="C308" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E308" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B309">
         <v>287</v>
       </c>
       <c r="C309" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E309" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B310">
         <v>288</v>
       </c>
       <c r="C310" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E310" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B311">
         <v>289</v>
       </c>
       <c r="C311" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E311" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B312">
         <v>290</v>
       </c>
       <c r="C312" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E312" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B313">
         <v>291</v>
       </c>
       <c r="C313" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E313" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B314">
         <v>292</v>
       </c>
       <c r="C314" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E314" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B315">
         <v>293</v>
       </c>
       <c r="C315" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E315" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B316">
         <v>294</v>
       </c>
       <c r="C316" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E316" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B317">
         <v>295</v>
       </c>
       <c r="C317" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E317" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B318">
         <v>296</v>
       </c>
       <c r="C318" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E318" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B319">
         <v>297</v>
       </c>
       <c r="C319" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E319" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B320">
         <v>298</v>
       </c>
@@ -4640,7 +4955,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B321">
         <v>299</v>
       </c>
@@ -4648,7 +4963,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B322">
         <v>300</v>
       </c>
@@ -4656,7 +4971,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B323">
         <v>301</v>
       </c>
@@ -4664,108 +4979,147 @@
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B324">
         <v>302</v>
       </c>
       <c r="C324" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E324" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B325">
         <v>303</v>
       </c>
       <c r="C325" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E325" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B326">
         <v>304</v>
       </c>
       <c r="C326" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E326" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B327">
         <v>305</v>
       </c>
       <c r="C327" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E327" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B328">
         <v>306</v>
       </c>
       <c r="C328" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E328" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B329">
         <v>307</v>
       </c>
       <c r="C329" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E329" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B330">
         <v>308</v>
       </c>
       <c r="C330" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E330" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B331">
         <v>309</v>
       </c>
       <c r="C331" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E331" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B332">
         <v>310</v>
       </c>
       <c r="C332" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E332" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B333">
         <v>311</v>
       </c>
       <c r="C333" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E333" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B334">
         <v>312</v>
       </c>
       <c r="C334" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E334" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B335">
         <v>313</v>
       </c>
       <c r="C335" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E335" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B336">
         <v>314</v>
       </c>
       <c r="C336" t="s">
         <v>337</v>
+      </c>
+      <c r="E336" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.3">
@@ -4775,6 +5129,9 @@
       <c r="C337" t="s">
         <v>338</v>
       </c>
+      <c r="E337" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338">
@@ -4783,6 +5140,9 @@
       <c r="C338" t="s">
         <v>339</v>
       </c>
+      <c r="E338" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339">
@@ -4791,6 +5151,9 @@
       <c r="C339" t="s">
         <v>340</v>
       </c>
+      <c r="E339" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340">
@@ -4807,6 +5170,9 @@
       <c r="C341" t="s">
         <v>341</v>
       </c>
+      <c r="E341" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342">
@@ -4815,6 +5181,9 @@
       <c r="C342" t="s">
         <v>342</v>
       </c>
+      <c r="E342" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343">
@@ -4823,6 +5192,9 @@
       <c r="C343" t="s">
         <v>343</v>
       </c>
+      <c r="E343" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344">
@@ -4831,6 +5203,9 @@
       <c r="C344" t="s">
         <v>344</v>
       </c>
+      <c r="E344" t="s">
+        <v>495</v>
+      </c>
       <c r="F344">
         <v>0</v>
       </c>
@@ -4853,6 +5228,9 @@
       <c r="C346" t="s">
         <v>346</v>
       </c>
+      <c r="E346" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347">
@@ -4861,6 +5239,9 @@
       <c r="C347" t="s">
         <v>347</v>
       </c>
+      <c r="E347" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348">
@@ -4869,6 +5250,9 @@
       <c r="C348" t="s">
         <v>348</v>
       </c>
+      <c r="E348" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349">
@@ -4877,6 +5261,9 @@
       <c r="C349" t="s">
         <v>349</v>
       </c>
+      <c r="E349" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350">
@@ -4885,6 +5272,9 @@
       <c r="C350" t="s">
         <v>350</v>
       </c>
+      <c r="E350" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351">
@@ -4893,6 +5283,9 @@
       <c r="C351" t="s">
         <v>351</v>
       </c>
+      <c r="E351" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352">
@@ -4901,16 +5294,22 @@
       <c r="C352" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E352" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B353">
         <v>330</v>
       </c>
       <c r="C353" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E353" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B354">
         <v>331</v>
       </c>
@@ -4918,7 +5317,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B355">
         <v>332</v>
       </c>
@@ -4926,7 +5325,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B356">
         <v>333</v>
       </c>
@@ -4934,7 +5333,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B357">
         <v>334</v>
       </c>
@@ -4942,7 +5341,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B358">
         <v>335</v>
       </c>
@@ -4950,7 +5349,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B359">
         <v>336</v>
       </c>
@@ -4958,7 +5357,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B360">
         <v>337</v>
       </c>
@@ -4966,7 +5365,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B361">
         <v>338</v>
       </c>
@@ -4974,7 +5373,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B362">
         <v>339</v>
       </c>
@@ -4982,7 +5381,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B363">
         <v>340</v>
       </c>
@@ -4990,7 +5389,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B364">
         <v>341</v>
       </c>
@@ -4998,7 +5397,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B365">
         <v>342</v>
       </c>
@@ -5006,7 +5405,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B366">
         <v>343</v>
       </c>
@@ -5014,7 +5413,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B367">
         <v>344</v>
       </c>
@@ -5022,7 +5421,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B368">
         <v>345</v>
       </c>
